--- a/data/trans_bre/P26_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,78</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,37%</t>
+          <t>-19,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>685,88%</t>
+          <t>126,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>306,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-44,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-51,85%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 11,57</t>
+          <t>-4,67; 10,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 23,05</t>
+          <t>4,63; 23,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 16,08</t>
+          <t>-1,17; 15,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 46,69</t>
+          <t>-21,29; 10,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-60,39; 13,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +724,22 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 482,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 875,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-88,69; 229,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-93,52; 163,25</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>230,09%</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>137,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>281,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 13,97</t>
+          <t>1,65; 7,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 12,25</t>
+          <t>-0,06; 10,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 15,86</t>
+          <t>4,34; 15,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 5,88</t>
+          <t>-5,26; 6,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,81; —</t>
+          <t>-0,76; 7,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 387,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 320,85</t>
+          <t>-11,32; 526,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,06; 55,54</t>
+          <t>48,43; 1612,49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,81; 156,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,66; 436,39</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-50,49%</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>-66,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>44,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63,25%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 4,95</t>
+          <t>-7,26; 0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 10,85</t>
+          <t>-2,4; 5,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 22,41</t>
+          <t>-2,67; 8,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 16,66</t>
+          <t>-5,38; 6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 175,32</t>
+          <t>-3,58; 7,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 454,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 276,23</t>
+          <t>-64,06; 762,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 181,35</t>
+          <t>-33,93; 263,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-55,64; 161,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-64,36; 558,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>138,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 11,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 14,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 205,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 336,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,74; 204,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 130,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>74,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>164,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>153,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 3,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 7,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 10,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 3,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-15,76; 6,01</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; 435,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31,76; 511,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 391,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-43,6; 62,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-75,78; 155,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P26_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-19,34</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>126,84%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>306,66%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-44,48%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-51,85%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.334868856446279</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.86000718820243</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.688843942068485</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-18.02683373422557</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-24.1978054842612</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.976502736704645</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.949880601910261</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.6435399872436162</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.5141672350968742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 10,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 23,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 15,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,29; 10,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-60,39; 13,14</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-88,69; 229,9</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-93,52; 163,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.67732100182389</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.258680693367161</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.342041219346854</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-38.87866078787805</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-71.91963711884041</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.9304688798416398</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.9207569193778237</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.27799330933197</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.26160235187786</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.90169282958354</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.939676357563501</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>13.92163689830918</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>0.6261768815661685</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.9485408297491347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,48</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>137,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>281,94%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,36%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>101,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 7,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 10,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 15,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,26; 6,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 7,99</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; 526,19</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>48,43; 1612,49</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-51,81; 156,41</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-24,66; 436,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>12.88220806279914</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.07483089174707</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.13922125010167</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.537112121907386</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.943072606994564</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.272543716282199</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.656592337908946</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2324270658560926</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6733039612272885</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-66,36%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>61,61%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>44,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>63,25%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.509777886248079</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3141100610989063</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.446186139525468</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.14245944898747</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.51325362383455</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.1393141410737627</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1346849697772138</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6793675801029082</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3450592129588242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 0,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 5,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 8,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 6,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 7,31</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-64,06; 762,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-33,93; 263,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-55,64; 161,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-64,36; 558,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.16201235207374</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.99031179159767</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>25.4985195326037</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.996537128965335</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.93312305352087</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>4.969706436142165</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>7.973730801126422</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6633358068509421</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.334887444048608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +867,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.440878192897433</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.369840875400273</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.4313559994913</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.443328410265046</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>3.648339550963533</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4658995547333779</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.291697647132097</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6774800653083721</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5818055890455153</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4171689613295309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.25817324915791</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.853224284444874</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.790575034460552</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.155411166748063</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.944675390599263</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4949833865598441</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.292698876588972</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3165774024150995</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6235891152328777</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.411716339747332</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.66983099894587</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.0305805540093</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.90683114418796</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.81959043518854</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>12.20643483582641</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.138008016508279</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.606034688454873</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4.877076307800178</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>74,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>164,87%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>153,71%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-5,11%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-5,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 7,59</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 10,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 3,67</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 6,01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-40,45; 435,03</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>31,76; 511,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>39,22; 391,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-43,6; 62,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-75,78; 155,87</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.044341752294128</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.02249023662312</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.73720326950639</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.337089549011174</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.503477852698705</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8654021390907545</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.823313109511114</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.16452882954756</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1799529216780625</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1413312011253252</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.808971758356242</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.068421059801213</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.866545719553035</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.94405669791174</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-29.04664544658043</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2947686648574261</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.4238564222858195</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2516962917244305</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.521937747692173</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7377667502234199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.83542029335663</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.72327319990678</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.4666682768047</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.093452592233141</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.678317768383749</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.60600704115453</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.118993291266596</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.05344913724397</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3960020662588973</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.054619906382653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
